--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H2">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I2">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J2">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4496786666666666</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N2">
-        <v>1.349036</v>
+        <v>0.162731</v>
       </c>
       <c r="O2">
-        <v>0.003078235001572996</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P2">
-        <v>0.003078235001572995</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q2">
-        <v>4.438146619925777</v>
+        <v>1.495739400885222</v>
       </c>
       <c r="R2">
-        <v>39.943319579332</v>
+        <v>13.461654607967</v>
       </c>
       <c r="S2">
-        <v>4.826996022362522E-05</v>
+        <v>1.1178303333191E-05</v>
       </c>
       <c r="T2">
-        <v>4.826996022362522E-05</v>
+        <v>1.1178303333191E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H3">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I3">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J3">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>8.943258333333334</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N3">
-        <v>26.82977500000001</v>
+        <v>1.349036</v>
       </c>
       <c r="O3">
-        <v>0.0612202732094089</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P3">
-        <v>0.06122027320940888</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q3">
-        <v>88.26634369254724</v>
+        <v>12.39964295931689</v>
       </c>
       <c r="R3">
-        <v>794.3970932329253</v>
+        <v>111.596786633852</v>
       </c>
       <c r="S3">
-        <v>0.0009599982298906885</v>
+        <v>9.266786055142939E-05</v>
       </c>
       <c r="T3">
-        <v>0.0009599982298906883</v>
+        <v>9.266786055142939E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H4">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I4">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J4">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.4484583333333</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N4">
-        <v>394.345375</v>
+        <v>57.364412</v>
       </c>
       <c r="O4">
-        <v>0.8998186379262144</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P4">
-        <v>0.8998186379262143</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q4">
-        <v>1297.34313475668</v>
+        <v>527.2640814412315</v>
       </c>
       <c r="R4">
-        <v>11676.08821281013</v>
+        <v>4745.376732971084</v>
       </c>
       <c r="S4">
-        <v>0.01411010200292696</v>
+        <v>0.003940471071069077</v>
       </c>
       <c r="T4">
-        <v>0.01411010200292696</v>
+        <v>0.003940471071069078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H5">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I5">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J5">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.241885</v>
+        <v>138.8619206666667</v>
       </c>
       <c r="N5">
-        <v>15.725655</v>
+        <v>416.585762</v>
       </c>
       <c r="O5">
-        <v>0.03588285386280381</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="P5">
-        <v>0.03588285386280379</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="Q5">
-        <v>51.735285481165</v>
+        <v>3829.041412338114</v>
       </c>
       <c r="R5">
-        <v>465.617569330485</v>
+        <v>34461.37271104303</v>
       </c>
       <c r="S5">
-        <v>0.0005626808634761809</v>
+        <v>0.02861607199565242</v>
       </c>
       <c r="T5">
-        <v>0.0005626808634761807</v>
+        <v>0.02861607199565242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>244.4161783333333</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H6">
-        <v>733.2485349999999</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I6">
-        <v>0.3883343047606652</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J6">
-        <v>0.3883343047606652</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4496786666666666</v>
+        <v>3.426311333333333</v>
       </c>
       <c r="N6">
-        <v>1.349036</v>
+        <v>10.278934</v>
       </c>
       <c r="O6">
-        <v>0.003078235001572996</v>
+        <v>0.02116135274800581</v>
       </c>
       <c r="P6">
-        <v>0.003078235001572995</v>
+        <v>0.02116135274800582</v>
       </c>
       <c r="Q6">
-        <v>109.9087411846955</v>
+        <v>94.47865854015976</v>
       </c>
       <c r="R6">
-        <v>989.1786706622598</v>
+        <v>850.3079268614379</v>
       </c>
       <c r="S6">
-        <v>0.001195384249225794</v>
+        <v>0.0007060796172447186</v>
       </c>
       <c r="T6">
-        <v>0.001195384249225794</v>
+        <v>0.0007060796172447187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H7">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I7">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J7">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.943258333333334</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N7">
-        <v>26.82977500000001</v>
+        <v>0.162731</v>
       </c>
       <c r="O7">
-        <v>0.0612202732094089</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P7">
-        <v>0.06122027320940888</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q7">
-        <v>2185.87702368107</v>
+        <v>13.25802970545389</v>
       </c>
       <c r="R7">
-        <v>19672.89321312963</v>
+        <v>119.322267349085</v>
       </c>
       <c r="S7">
-        <v>0.02377393223403378</v>
+        <v>9.908295359493114E-05</v>
       </c>
       <c r="T7">
-        <v>0.02377393223403378</v>
+        <v>9.908295359493114E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H8">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I8">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J8">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>131.4484583333333</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N8">
-        <v>394.345375</v>
+        <v>1.349036</v>
       </c>
       <c r="O8">
-        <v>0.8998186379262144</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P8">
-        <v>0.8998186379262143</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q8">
-        <v>32128.12983364173</v>
+        <v>109.9087411846956</v>
       </c>
       <c r="R8">
-        <v>289153.1685027756</v>
+        <v>989.1786706622601</v>
       </c>
       <c r="S8">
-        <v>0.3494304451697652</v>
+        <v>0.0008213952558878856</v>
       </c>
       <c r="T8">
-        <v>0.3494304451697651</v>
+        <v>0.0008213952558878856</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H9">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I9">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J9">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.241885</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N9">
-        <v>15.725655</v>
+        <v>57.364412</v>
       </c>
       <c r="O9">
-        <v>0.03588285386280381</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P9">
-        <v>0.03588285386280379</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q9">
-        <v>1281.201498962825</v>
+        <v>4673.596784459603</v>
       </c>
       <c r="R9">
-        <v>11530.81349066542</v>
+        <v>42062.37106013642</v>
       </c>
       <c r="S9">
-        <v>0.01393454310764046</v>
+        <v>0.03492779723713681</v>
       </c>
       <c r="T9">
-        <v>0.01393454310764046</v>
+        <v>0.03492779723713682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.68861033333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H10">
-        <v>275.065831</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I10">
-        <v>0.1456770701148412</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J10">
-        <v>0.1456770701148413</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4496786666666666</v>
+        <v>138.8619206666667</v>
       </c>
       <c r="N10">
-        <v>1.349036</v>
+        <v>416.585762</v>
       </c>
       <c r="O10">
-        <v>0.003078235001572996</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="P10">
-        <v>0.003078235001572995</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="Q10">
-        <v>41.23041204321288</v>
+        <v>33940.09996537319</v>
       </c>
       <c r="R10">
-        <v>371.073708388916</v>
+        <v>305460.8996883587</v>
       </c>
       <c r="S10">
-        <v>0.0004484282561541077</v>
+        <v>0.2536489527167843</v>
       </c>
       <c r="T10">
-        <v>0.0004484282561541078</v>
+        <v>0.2536489527167843</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>91.68861033333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H11">
-        <v>275.065831</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I11">
-        <v>0.1456770701148412</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J11">
-        <v>0.1456770701148413</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.943258333333334</v>
+        <v>3.426311333333333</v>
       </c>
       <c r="N11">
-        <v>26.82977500000001</v>
+        <v>10.278934</v>
       </c>
       <c r="O11">
-        <v>0.0612202732094089</v>
+        <v>0.02116135274800581</v>
       </c>
       <c r="P11">
-        <v>0.06122027320940888</v>
+        <v>0.02116135274800582</v>
       </c>
       <c r="Q11">
-        <v>819.9949284353362</v>
+        <v>837.4459218735211</v>
       </c>
       <c r="R11">
-        <v>7379.954355918027</v>
+        <v>7537.01329686169</v>
       </c>
       <c r="S11">
-        <v>0.008918390032776797</v>
+        <v>0.006258593264512354</v>
       </c>
       <c r="T11">
-        <v>0.008918390032776797</v>
+        <v>0.006258593264512355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H12">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I12">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J12">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>131.4484583333333</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N12">
-        <v>394.345375</v>
+        <v>0.162731</v>
       </c>
       <c r="O12">
-        <v>0.8998186379262144</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P12">
-        <v>0.8998186379262143</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q12">
-        <v>12052.3264750424</v>
+        <v>7.879454186095555</v>
       </c>
       <c r="R12">
-        <v>108470.9382753816</v>
+        <v>70.91508767486</v>
       </c>
       <c r="S12">
-        <v>0.1310829428078181</v>
+        <v>5.888654730899653E-05</v>
       </c>
       <c r="T12">
-        <v>0.1310829428078181</v>
+        <v>5.888654730899653E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H13">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I13">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J13">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>5.241885</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N13">
-        <v>15.725655</v>
+        <v>1.349036</v>
       </c>
       <c r="O13">
-        <v>0.03588285386280381</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P13">
-        <v>0.03588285386280379</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q13">
-        <v>480.621151177145</v>
+        <v>65.32048200646221</v>
       </c>
       <c r="R13">
-        <v>4325.590360594305</v>
+        <v>587.88433805816</v>
       </c>
       <c r="S13">
-        <v>0.005227309018092272</v>
+        <v>0.0004881680333528304</v>
       </c>
       <c r="T13">
-        <v>0.005227309018092271</v>
+        <v>0.0004881680333528304</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>73.35356366666666</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H14">
-        <v>220.060691</v>
+        <v>435.78106</v>
       </c>
       <c r="I14">
-        <v>0.1165459068317628</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J14">
-        <v>0.1165459068317628</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4496786666666666</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N14">
-        <v>1.349036</v>
+        <v>57.364412</v>
       </c>
       <c r="O14">
-        <v>0.003078235001572996</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P14">
-        <v>0.003078235001572995</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q14">
-        <v>32.98553270487511</v>
+        <v>2777.591585292969</v>
       </c>
       <c r="R14">
-        <v>296.869794343876</v>
+        <v>24998.32426763672</v>
       </c>
       <c r="S14">
-        <v>0.0003587556896995976</v>
+        <v>0.02075813558013389</v>
       </c>
       <c r="T14">
-        <v>0.0003587556896995975</v>
+        <v>0.0207581355801339</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>73.35356366666666</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H15">
-        <v>220.060691</v>
+        <v>435.78106</v>
       </c>
       <c r="I15">
-        <v>0.1165459068317628</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J15">
-        <v>0.1165459068317628</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.943258333333334</v>
+        <v>138.8619206666667</v>
       </c>
       <c r="N15">
-        <v>26.82977500000001</v>
+        <v>416.585762</v>
       </c>
       <c r="O15">
-        <v>0.0612202732094089</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="P15">
-        <v>0.06122027320940888</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="Q15">
-        <v>656.019869541614</v>
+        <v>20171.1316605853</v>
       </c>
       <c r="R15">
-        <v>5904.178825874526</v>
+        <v>181540.1849452677</v>
       </c>
       <c r="S15">
-        <v>0.007134972257678834</v>
+        <v>0.1507475353944078</v>
       </c>
       <c r="T15">
-        <v>0.007134972257678832</v>
+        <v>0.1507475353944078</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>73.35356366666666</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H16">
-        <v>220.060691</v>
+        <v>435.78106</v>
       </c>
       <c r="I16">
-        <v>0.1165459068317628</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J16">
-        <v>0.1165459068317628</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>131.4484583333333</v>
+        <v>3.426311333333333</v>
       </c>
       <c r="N16">
-        <v>394.345375</v>
+        <v>10.278934</v>
       </c>
       <c r="O16">
-        <v>0.8998186379262144</v>
+        <v>0.02116135274800581</v>
       </c>
       <c r="P16">
-        <v>0.8998186379262143</v>
+        <v>0.02116135274800582</v>
       </c>
       <c r="Q16">
-        <v>9642.212857239345</v>
+        <v>497.7071949100044</v>
       </c>
       <c r="R16">
-        <v>86779.91571515411</v>
+        <v>4479.36475419004</v>
       </c>
       <c r="S16">
-        <v>0.1048701791412323</v>
+        <v>0.003719579756020997</v>
       </c>
       <c r="T16">
-        <v>0.1048701791412323</v>
+        <v>0.003719579756020998</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H17">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I17">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J17">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>5.241885</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N17">
-        <v>15.725655</v>
+        <v>0.162731</v>
       </c>
       <c r="O17">
-        <v>0.03588285386280381</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P17">
-        <v>0.03588285386280379</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q17">
-        <v>384.510945080845</v>
+        <v>3.390392006154</v>
       </c>
       <c r="R17">
-        <v>3460.598505727605</v>
+        <v>30.513528055386</v>
       </c>
       <c r="S17">
-        <v>0.004181999743152092</v>
+        <v>2.533785647472131E-05</v>
       </c>
       <c r="T17">
-        <v>0.004181999743152091</v>
+        <v>2.533785647472131E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.147616</v>
+        <v>62.503002</v>
       </c>
       <c r="H18">
-        <v>387.442848</v>
+        <v>187.509006</v>
       </c>
       <c r="I18">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J18">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>1.349036</v>
       </c>
       <c r="O18">
-        <v>0.003078235001572996</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P18">
-        <v>0.003078235001572995</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q18">
-        <v>58.07492776605866</v>
+        <v>28.106266602024</v>
       </c>
       <c r="R18">
-        <v>522.6743498945279</v>
+        <v>252.956399418216</v>
       </c>
       <c r="S18">
-        <v>0.0006316317808591102</v>
+        <v>0.000210050208916753</v>
       </c>
       <c r="T18">
-        <v>0.0006316317808591101</v>
+        <v>0.000210050208916753</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.147616</v>
+        <v>62.503002</v>
       </c>
       <c r="H19">
-        <v>387.442848</v>
+        <v>187.509006</v>
       </c>
       <c r="I19">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J19">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.943258333333334</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N19">
-        <v>26.82977500000001</v>
+        <v>57.364412</v>
       </c>
       <c r="O19">
-        <v>0.0612202732094089</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P19">
-        <v>0.06122027320940888</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q19">
-        <v>1155.000493022133</v>
+        <v>1195.149319321608</v>
       </c>
       <c r="R19">
-        <v>10395.0044371992</v>
+        <v>10756.34387389447</v>
       </c>
       <c r="S19">
-        <v>0.01256196169953896</v>
+        <v>0.008931864475808425</v>
       </c>
       <c r="T19">
-        <v>0.01256196169953896</v>
+        <v>0.008931864475808425</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>129.147616</v>
+        <v>62.503002</v>
       </c>
       <c r="H20">
-        <v>387.442848</v>
+        <v>187.509006</v>
       </c>
       <c r="I20">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J20">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>131.4484583333333</v>
+        <v>138.8619206666667</v>
       </c>
       <c r="N20">
-        <v>394.345375</v>
+        <v>416.585762</v>
       </c>
       <c r="O20">
-        <v>0.8998186379262144</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="P20">
-        <v>0.8998186379262143</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="Q20">
-        <v>16976.25502062533</v>
+        <v>8679.286905152509</v>
       </c>
       <c r="R20">
-        <v>152786.295185628</v>
+        <v>78113.58214637257</v>
       </c>
       <c r="S20">
-        <v>0.1846363414206912</v>
+        <v>0.06486404094467808</v>
       </c>
       <c r="T20">
-        <v>0.1846363414206912</v>
+        <v>0.06486404094467808</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>129.147616</v>
+        <v>62.503002</v>
       </c>
       <c r="H21">
-        <v>387.442848</v>
+        <v>187.509006</v>
       </c>
       <c r="I21">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J21">
-        <v>0.2051928395773366</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.241885</v>
+        <v>3.426311333333333</v>
       </c>
       <c r="N21">
-        <v>15.725655</v>
+        <v>10.278934</v>
       </c>
       <c r="O21">
-        <v>0.03588285386280381</v>
+        <v>0.02116135274800581</v>
       </c>
       <c r="P21">
-        <v>0.03588285386280379</v>
+        <v>0.02116135274800582</v>
       </c>
       <c r="Q21">
-        <v>676.97695109616</v>
+        <v>214.154744119956</v>
       </c>
       <c r="R21">
-        <v>6092.79255986544</v>
+        <v>1927.392697079604</v>
       </c>
       <c r="S21">
-        <v>0.007362904676247315</v>
+        <v>0.001600470435289729</v>
       </c>
       <c r="T21">
-        <v>0.007362904676247312</v>
+        <v>0.00160047043528973</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>80.92074566666666</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H22">
-        <v>242.762237</v>
+        <v>430.372849</v>
       </c>
       <c r="I22">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J22">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.4496786666666666</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N22">
-        <v>1.349036</v>
+        <v>0.162731</v>
       </c>
       <c r="O22">
-        <v>0.003078235001572996</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P22">
-        <v>0.003078235001572995</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q22">
-        <v>36.3883330170591</v>
+        <v>7.781667121179888</v>
       </c>
       <c r="R22">
-        <v>327.4949971535319</v>
+        <v>70.03500409061898</v>
       </c>
       <c r="S22">
-        <v>0.0003957650654107605</v>
+        <v>5.815574254912804E-05</v>
       </c>
       <c r="T22">
-        <v>0.0003957650654107605</v>
+        <v>5.815574254912804E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>80.92074566666666</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H23">
-        <v>242.762237</v>
+        <v>430.372849</v>
       </c>
       <c r="I23">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J23">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>8.943258333333334</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N23">
-        <v>26.82977500000001</v>
+        <v>1.349036</v>
       </c>
       <c r="O23">
-        <v>0.0612202732094089</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P23">
-        <v>0.06122027320940888</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q23">
-        <v>723.6951330229639</v>
+        <v>64.50982963595155</v>
       </c>
       <c r="R23">
-        <v>6513.256197206675</v>
+        <v>580.5884667235639</v>
       </c>
       <c r="S23">
-        <v>0.00787101875548984</v>
+        <v>0.0004821096798121163</v>
       </c>
       <c r="T23">
-        <v>0.007871018755489838</v>
+        <v>0.0004821096798121163</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>80.92074566666666</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H24">
-        <v>242.762237</v>
+        <v>430.372849</v>
       </c>
       <c r="I24">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J24">
-        <v>0.1285688276588767</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,90 +1925,462 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>131.4484583333333</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N24">
-        <v>394.345375</v>
+        <v>57.364412</v>
       </c>
       <c r="O24">
-        <v>0.8998186379262144</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P24">
-        <v>0.8998186379262143</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q24">
-        <v>10636.9072650671</v>
+        <v>2743.120602627754</v>
       </c>
       <c r="R24">
-        <v>95732.16538560386</v>
+        <v>24688.08542364979</v>
       </c>
       <c r="S24">
-        <v>0.1156886273837806</v>
+        <v>0.02050051911285564</v>
       </c>
       <c r="T24">
-        <v>0.1156886273837806</v>
+        <v>0.02050051911285564</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>143.4576163333333</v>
+      </c>
+      <c r="H25">
+        <v>430.372849</v>
+      </c>
+      <c r="I25">
+        <v>0.1735909032211944</v>
+      </c>
+      <c r="J25">
+        <v>0.1735909032211944</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>138.8619206666667</v>
+      </c>
+      <c r="N25">
+        <v>416.585762</v>
+      </c>
+      <c r="O25">
+        <v>0.8576296199079396</v>
+      </c>
+      <c r="P25">
+        <v>0.8576296199079396</v>
+      </c>
+      <c r="Q25">
+        <v>19920.80013830844</v>
+      </c>
+      <c r="R25">
+        <v>179287.2012447759</v>
+      </c>
+      <c r="S25">
+        <v>0.1488767003490689</v>
+      </c>
+      <c r="T25">
+        <v>0.1488767003490689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>143.4576163333333</v>
+      </c>
+      <c r="H26">
+        <v>430.372849</v>
+      </c>
+      <c r="I26">
+        <v>0.1735909032211944</v>
+      </c>
+      <c r="J26">
+        <v>0.1735909032211944</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.426311333333333</v>
+      </c>
+      <c r="N26">
+        <v>10.278934</v>
+      </c>
+      <c r="O26">
+        <v>0.02116135274800581</v>
+      </c>
+      <c r="P26">
+        <v>0.02116135274800582</v>
+      </c>
+      <c r="Q26">
+        <v>491.5304566958851</v>
+      </c>
+      <c r="R26">
+        <v>4423.774110262965</v>
+      </c>
+      <c r="S26">
+        <v>0.003673418336908633</v>
+      </c>
+      <c r="T26">
+        <v>0.003673418336908634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>80.92074566666666</v>
-      </c>
-      <c r="H25">
-        <v>242.762237</v>
-      </c>
-      <c r="I25">
-        <v>0.1285688276588767</v>
-      </c>
-      <c r="J25">
-        <v>0.1285688276588767</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.241885</v>
-      </c>
-      <c r="N25">
-        <v>15.725655</v>
-      </c>
-      <c r="O25">
-        <v>0.03588285386280381</v>
-      </c>
-      <c r="P25">
-        <v>0.03588285386280379</v>
-      </c>
-      <c r="Q25">
-        <v>424.177242898915</v>
-      </c>
-      <c r="R25">
-        <v>3817.595186090235</v>
-      </c>
-      <c r="S25">
-        <v>0.004613416454195481</v>
-      </c>
-      <c r="T25">
-        <v>0.004613416454195478</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>203.20046</v>
+      </c>
+      <c r="H27">
+        <v>609.6013799999999</v>
+      </c>
+      <c r="I27">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="J27">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.05424366666666666</v>
+      </c>
+      <c r="N27">
+        <v>0.162731</v>
+      </c>
+      <c r="O27">
+        <v>0.000335016072098112</v>
+      </c>
+      <c r="P27">
+        <v>0.000335016072098112</v>
+      </c>
+      <c r="Q27">
+        <v>11.02233801875333</v>
+      </c>
+      <c r="R27">
+        <v>99.20104216877998</v>
+      </c>
+      <c r="S27">
+        <v>8.237466883714397E-05</v>
+      </c>
+      <c r="T27">
+        <v>8.237466883714396E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>203.20046</v>
+      </c>
+      <c r="H28">
+        <v>609.6013799999999</v>
+      </c>
+      <c r="I28">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="J28">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.4496786666666666</v>
+      </c>
+      <c r="N28">
+        <v>1.349036</v>
+      </c>
+      <c r="O28">
+        <v>0.002777275023437136</v>
+      </c>
+      <c r="P28">
+        <v>0.002777275023437136</v>
+      </c>
+      <c r="Q28">
+        <v>91.37491191885331</v>
+      </c>
+      <c r="R28">
+        <v>822.3742072696799</v>
+      </c>
+      <c r="S28">
+        <v>0.0006828839849161214</v>
+      </c>
+      <c r="T28">
+        <v>0.0006828839849161213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>203.20046</v>
+      </c>
+      <c r="H29">
+        <v>609.6013799999999</v>
+      </c>
+      <c r="I29">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="J29">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>19.12147066666667</v>
+      </c>
+      <c r="N29">
+        <v>57.364412</v>
+      </c>
+      <c r="O29">
+        <v>0.1180967362485193</v>
+      </c>
+      <c r="P29">
+        <v>0.1180967362485194</v>
+      </c>
+      <c r="Q29">
+        <v>3885.491635343173</v>
+      </c>
+      <c r="R29">
+        <v>34969.42471808856</v>
+      </c>
+      <c r="S29">
+        <v>0.02903794877151549</v>
+      </c>
+      <c r="T29">
+        <v>0.02903794877151549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>203.20046</v>
+      </c>
+      <c r="H30">
+        <v>609.6013799999999</v>
+      </c>
+      <c r="I30">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="J30">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>138.8619206666667</v>
+      </c>
+      <c r="N30">
+        <v>416.585762</v>
+      </c>
+      <c r="O30">
+        <v>0.8576296199079396</v>
+      </c>
+      <c r="P30">
+        <v>0.8576296199079396</v>
+      </c>
+      <c r="Q30">
+        <v>28216.80615595017</v>
+      </c>
+      <c r="R30">
+        <v>253951.2554035515</v>
+      </c>
+      <c r="S30">
+        <v>0.2108763185073482</v>
+      </c>
+      <c r="T30">
+        <v>0.2108763185073482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>203.20046</v>
+      </c>
+      <c r="H31">
+        <v>609.6013799999999</v>
+      </c>
+      <c r="I31">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="J31">
+        <v>0.2458827372706463</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.426311333333333</v>
+      </c>
+      <c r="N31">
+        <v>10.278934</v>
+      </c>
+      <c r="O31">
+        <v>0.02116135274800581</v>
+      </c>
+      <c r="P31">
+        <v>0.02116135274800582</v>
+      </c>
+      <c r="Q31">
+        <v>696.2280390365465</v>
+      </c>
+      <c r="R31">
+        <v>6266.052351328919</v>
+      </c>
+      <c r="S31">
+        <v>0.005203211338029383</v>
+      </c>
+      <c r="T31">
+        <v>0.005203211338029384</v>
       </c>
     </row>
   </sheetData>
